--- a/biology/Médecine/Lotion/Lotion.xlsx
+++ b/biology/Médecine/Lotion/Lotion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lotion est une préparation de soin liquide (suspension aqueuse) que l'on applique sur la peau (voie cutanée) ou les cheveux pour soigner ou entretenir notamment l'épiderme aux endroits irrités ou rasés. On l'applique parfois avec de l'ouate. Il existe également des lotions spéciales pour le cuir chevelu. 
 </t>
